--- a/Unity/Assets/Config/Excel/Datas/BuffConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/BuffConfig.xlsx
@@ -1,39 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{594E0B13-6558-4EBD-A6E2-64B574FB47DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22080" windowHeight="12180"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Buff" sheetId="1" r:id="rId1"/>
     <sheet name="#说明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>cgm</author>
   </authors>
   <commentList>
-    <comment ref="L3" authorId="0">
+    <comment ref="O3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>##var</t>
   </si>
@@ -74,161 +67,189 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>StartEvents</t>
-  </si>
-  <si>
-    <t>EndEvents</t>
-  </si>
-  <si>
     <t>Duration</t>
   </si>
   <si>
+    <t>MaxLayer</t>
+  </si>
+  <si>
+    <t>Goup</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>buffID</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>开始事件</t>
+  </si>
+  <si>
+    <t>结束事件</t>
+  </si>
+  <si>
+    <t>持续时间</t>
+  </si>
+  <si>
+    <t>触发间隔</t>
+  </si>
+  <si>
+    <t>最大叠加层数</t>
+  </si>
+  <si>
+    <t>分组</t>
+  </si>
+  <si>
+    <t>测试-标记buff</t>
+  </si>
+  <si>
+    <t>纯标记</t>
+  </si>
+  <si>
+    <t>测试-加攻击%</t>
+  </si>
+  <si>
+    <t>攻击+50%</t>
+  </si>
+  <si>
+    <t>测试-加攻击</t>
+  </si>
+  <si>
+    <t>攻击+100</t>
+  </si>
+  <si>
+    <t>攻击+200</t>
+  </si>
+  <si>
+    <t>测试-减攻击</t>
+  </si>
+  <si>
+    <t>攻击-100</t>
+  </si>
+  <si>
+    <t>攻击-300</t>
+  </si>
+  <si>
+    <t>测试-加速</t>
+  </si>
+  <si>
+    <t>速度+50</t>
+  </si>
+  <si>
+    <t>测试-减速%</t>
+  </si>
+  <si>
+    <t>速度-100%</t>
+  </si>
+  <si>
+    <t>测试-持续伤害</t>
+  </si>
+  <si>
+    <t>500伤害/秒</t>
+  </si>
+  <si>
+    <t>测试-持续伤害%</t>
+  </si>
+  <si>
+    <t>血量上限5%伤害/5秒</t>
+  </si>
+  <si>
+    <t>测试-持续回血</t>
+  </si>
+  <si>
+    <t>回复200点/3秒</t>
+  </si>
+  <si>
+    <t>测试-持续回血%</t>
+  </si>
+  <si>
+    <t>回复血量上限10%点/3秒</t>
+  </si>
+  <si>
+    <t>测试-持续回护盾</t>
+  </si>
+  <si>
+    <t>加100盾/2秒</t>
+  </si>
+  <si>
+    <t>测试-持续回护盾%</t>
+  </si>
+  <si>
+    <t>加10%盾/2秒</t>
+  </si>
+  <si>
+    <t>(list#sep=,),string</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>(list#sep=;),(list#sep=,),int</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始事件参数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartAEs</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartAEParams</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndAEs</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>EndAEParams</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束事件参数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>TriggerInterval</t>
-  </si>
-  <si>
-    <t>TriggerEvents</t>
-  </si>
-  <si>
-    <t>MaxLayer</t>
-  </si>
-  <si>
-    <t>Goup</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>(list#sep=,),int</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>buffID</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>开始事件</t>
-  </si>
-  <si>
-    <t>结束事件</t>
-  </si>
-  <si>
-    <t>持续时间</t>
-  </si>
-  <si>
-    <t>触发间隔</t>
-  </si>
-  <si>
-    <t>触发事件id</t>
-  </si>
-  <si>
-    <t>最大叠加层数</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>测试-标记buff</t>
-  </si>
-  <si>
-    <t>纯标记</t>
-  </si>
-  <si>
-    <t>测试-加攻击%</t>
-  </si>
-  <si>
-    <t>攻击+50%</t>
-  </si>
-  <si>
-    <t>测试-加攻击</t>
-  </si>
-  <si>
-    <t>攻击+100</t>
-  </si>
-  <si>
-    <t>攻击+200</t>
-  </si>
-  <si>
-    <t>测试-减攻击</t>
-  </si>
-  <si>
-    <t>攻击-100</t>
-  </si>
-  <si>
-    <t>攻击-300</t>
-  </si>
-  <si>
-    <t>测试-加速</t>
-  </si>
-  <si>
-    <t>速度+50</t>
-  </si>
-  <si>
-    <t>测试-减速%</t>
-  </si>
-  <si>
-    <t>速度-100%</t>
-  </si>
-  <si>
-    <t>测试-持续伤害</t>
-  </si>
-  <si>
-    <t>500伤害/秒</t>
-  </si>
-  <si>
-    <t>测试-持续伤害%</t>
-  </si>
-  <si>
-    <t>血量上限5%伤害/5秒</t>
-  </si>
-  <si>
-    <t>测试-持续回血</t>
-  </si>
-  <si>
-    <t>回复200点/3秒</t>
-  </si>
-  <si>
-    <t>测试-持续回血%</t>
-  </si>
-  <si>
-    <t>回复血量上限10%点/3秒</t>
-  </si>
-  <si>
-    <t>测试-持续回护盾</t>
-  </si>
-  <si>
-    <t>加100盾/2秒</t>
-  </si>
-  <si>
-    <t>测试-持续回护盾%</t>
-  </si>
-  <si>
-    <t>加10%盾/2秒</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntervalAEs</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntervalAEParams</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔事件参数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>间隔事件</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,147 +296,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -429,8 +313,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,194 +341,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -653,269 +365,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -923,72 +395,31 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1275,36 +706,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L$1:Q$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="17.625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="15.375" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11.875" style="8" customWidth="1"/>
-    <col min="12" max="12" width="18.875" style="7" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="7"/>
+    <col min="3" max="3" width="17.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="27" style="7" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="24.77734375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="24.77734375" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.88671875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="11.88671875" style="8" customWidth="1"/>
+    <col min="15" max="15" width="18.88671875" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="16.5" spans="1:11">
+    <row r="1" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1317,537 +751,685 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="J1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="D2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:11">
-      <c r="A2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="16.5" spans="1:12">
-      <c r="A3" s="9" t="s">
+      <c r="F3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="H3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="K3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="N3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="16.5" spans="2:11">
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B4" s="10">
         <v>8001</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="10">
-        <v>15000</v>
-      </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10">
+        <v>15000</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10">
         <v>0</v>
       </c>
-      <c r="J4" s="10">
+      <c r="L4" s="10"/>
+      <c r="M4" s="10">
         <v>1</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="16.5" spans="2:11">
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B5" s="10">
         <v>8002</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5" s="10">
         <v>1001</v>
       </c>
       <c r="F5" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G5" s="10">
         <v>5000</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I5" s="10">
         <v>10000</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10">
+      <c r="J5" s="10"/>
+      <c r="K5" s="10">
         <v>0</v>
       </c>
-      <c r="J5" s="10">
+      <c r="L5" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M5" s="10">
         <v>1</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="16.5" spans="2:11">
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B6" s="10">
         <v>8003</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10">
         <v>1001</v>
       </c>
       <c r="F6" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G6" s="10">
         <v>100</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I6" s="10">
         <v>12000</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10">
+      <c r="J6" s="10"/>
+      <c r="K6" s="10">
         <v>0</v>
       </c>
-      <c r="J6" s="10">
+      <c r="L6" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M6" s="10">
         <v>1</v>
       </c>
-      <c r="K6" s="10">
+      <c r="N6" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="16.5" spans="2:11">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
         <v>8004</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7" s="10">
         <v>1001</v>
       </c>
       <c r="F7" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G7" s="10">
         <v>200</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I7" s="10">
         <v>12000</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10">
+      <c r="J7" s="10"/>
+      <c r="K7" s="10">
         <v>0</v>
       </c>
-      <c r="J7" s="10">
+      <c r="L7" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M7" s="10">
         <v>1</v>
       </c>
-      <c r="K7" s="10">
+      <c r="N7" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" ht="16.5" spans="2:11">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>8005</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E8" s="10">
         <v>1001</v>
       </c>
       <c r="F8" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G8" s="10">
         <v>-100</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I8" s="10">
         <v>10000</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10">
         <v>0</v>
       </c>
-      <c r="J8" s="10">
+      <c r="L8" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M8" s="10">
         <v>1</v>
       </c>
-      <c r="K8" s="10">
+      <c r="N8" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="9" s="2" customFormat="1" ht="16.5" spans="2:11">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B9" s="10">
         <v>8006</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E9" s="10">
         <v>1001</v>
       </c>
       <c r="F9" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G9" s="10">
         <v>-300</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I9" s="10">
         <v>10000</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10">
+      <c r="J9" s="10"/>
+      <c r="K9" s="10">
         <v>0</v>
       </c>
-      <c r="J9" s="10">
+      <c r="L9" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M9" s="10">
         <v>1</v>
       </c>
-      <c r="K9" s="10">
+      <c r="N9" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="10" s="2" customFormat="1" ht="16.5" spans="2:11">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B10" s="10">
         <v>8007</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E10" s="10">
         <v>1001</v>
       </c>
       <c r="F10" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G10" s="10">
         <v>50</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I10" s="10">
         <v>5000</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10">
+      <c r="J10" s="10"/>
+      <c r="K10" s="10">
         <v>0</v>
       </c>
-      <c r="J10" s="10">
+      <c r="L10" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M10" s="10">
         <v>1</v>
       </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="16.5" spans="2:11">
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B11" s="10">
         <v>8008</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E11" s="10">
         <v>1001</v>
       </c>
       <c r="F11" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G11" s="10">
         <v>-10000</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I11" s="10">
         <v>7500</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10">
+      <c r="J11" s="10"/>
+      <c r="K11" s="10">
         <v>0</v>
       </c>
-      <c r="J11" s="10">
+      <c r="L11" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M11" s="10">
         <v>1</v>
       </c>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="16.5" spans="2:11">
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B12" s="10">
         <v>8009</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E12" s="10">
         <v>1001</v>
       </c>
       <c r="F12" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G12" s="10">
         <v>500</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I12" s="10">
         <v>10000</v>
       </c>
-      <c r="H12" s="10">
+      <c r="J12" s="10">
         <v>1000</v>
       </c>
-      <c r="I12" s="10">
+      <c r="K12" s="10">
         <v>0</v>
       </c>
-      <c r="J12" s="10">
+      <c r="L12" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M12" s="10">
         <v>1</v>
       </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="16.5" spans="2:11">
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B13" s="10">
         <v>8010</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E13" s="10">
         <v>1001</v>
       </c>
       <c r="F13" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G13" s="10">
         <v>500</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I13" s="10">
         <v>25000</v>
       </c>
-      <c r="H13" s="10">
+      <c r="J13" s="10">
         <v>5000</v>
       </c>
-      <c r="I13" s="10">
+      <c r="K13" s="10">
         <v>0</v>
       </c>
-      <c r="J13" s="10">
+      <c r="L13" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M13" s="10">
         <v>1</v>
       </c>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="16.5" spans="2:11">
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B14" s="10">
         <v>8011</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E14" s="10">
         <v>1001</v>
       </c>
       <c r="F14" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G14" s="10">
         <v>200</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I14" s="10">
         <v>15000</v>
       </c>
-      <c r="H14" s="10">
+      <c r="J14" s="10">
         <v>3000</v>
       </c>
-      <c r="I14" s="10">
+      <c r="K14" s="10">
         <v>0</v>
       </c>
-      <c r="J14" s="10">
+      <c r="L14" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M14" s="10">
         <v>1</v>
       </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="16.5" spans="2:11">
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B15" s="10">
         <v>8012</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E15" s="10">
         <v>1001</v>
       </c>
       <c r="F15" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G15" s="10">
         <v>1000</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I15" s="10">
         <v>15000</v>
       </c>
-      <c r="H15" s="10">
+      <c r="J15" s="10">
         <v>3000</v>
       </c>
-      <c r="I15" s="10">
+      <c r="K15" s="10">
         <v>0</v>
       </c>
-      <c r="J15" s="10">
+      <c r="L15" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M15" s="10">
         <v>1</v>
       </c>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="16.5" spans="2:11">
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B16" s="10">
         <v>8013</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E16" s="10">
         <v>1001</v>
       </c>
       <c r="F16" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G16" s="10">
         <v>100</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I16" s="10">
         <v>10000</v>
       </c>
-      <c r="H16" s="10">
+      <c r="J16" s="10">
         <v>2000</v>
       </c>
-      <c r="I16" s="10">
+      <c r="K16" s="10">
         <v>0</v>
       </c>
-      <c r="J16" s="10">
+      <c r="L16" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M16" s="10">
         <v>1</v>
       </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="16.5" spans="2:11">
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="2:14" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B17" s="10">
         <v>8014</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E17" s="10">
         <v>1001</v>
       </c>
       <c r="F17" s="10">
+        <v>1001</v>
+      </c>
+      <c r="G17" s="10">
         <v>1000</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
+        <v>1001</v>
+      </c>
+      <c r="I17" s="10">
         <v>10000</v>
       </c>
-      <c r="H17" s="10">
+      <c r="J17" s="10">
         <v>2000</v>
       </c>
-      <c r="I17" s="10">
+      <c r="K17" s="10">
         <v>0</v>
       </c>
-      <c r="J17" s="10">
+      <c r="L17" s="10">
+        <v>1001</v>
+      </c>
+      <c r="M17" s="10">
         <v>1</v>
       </c>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="5:7">
+      <c r="N17" s="10"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="L18" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.8583333333333" customWidth="1"/>
-    <col min="4" max="4" width="14.1416666666667" customWidth="1"/>
-    <col min="6" max="6" width="18.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:13">
+    <row r="3" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1857,7 +1439,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="6:13">
+    <row r="4" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1867,7 +1449,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="6:13">
+    <row r="5" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1877,7 +1459,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="6:13">
+    <row r="6" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1887,7 +1469,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="6:13">
+    <row r="7" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1897,7 +1479,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="6:13">
+    <row r="8" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1907,7 +1489,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="6:13">
+    <row r="9" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1917,7 +1499,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="6:13">
+    <row r="10" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1927,7 +1509,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="6:13">
+    <row r="11" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1937,7 +1519,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="6:13">
+    <row r="12" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1947,7 +1529,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="6:13">
+    <row r="13" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1957,7 +1539,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="6:13">
+    <row r="14" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1967,7 +1549,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="6:13">
+    <row r="15" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1977,7 +1559,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="6:13">
+    <row r="16" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1987,7 +1569,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="6:13">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1997,7 +1579,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="6:13">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -2007,7 +1589,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="6:13">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -2017,7 +1599,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="6:13">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -2027,7 +1609,7 @@
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
-    <row r="21" spans="6:13">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -2037,7 +1619,7 @@
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
-    <row r="22" spans="6:13">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -2047,7 +1629,7 @@
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
-    <row r="23" spans="6:13">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -2057,7 +1639,7 @@
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
-    <row r="24" spans="6:13">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -2067,7 +1649,7 @@
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="6:13">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -2077,7 +1659,7 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="6:13">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -2087,7 +1669,7 @@
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
-    <row r="27" spans="6:13">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -2097,7 +1679,7 @@
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
-    <row r="28" spans="2:13">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2111,7 +1693,7 @@
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2125,7 +1707,7 @@
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
-    <row r="30" spans="2:13">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2139,7 +1721,7 @@
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
-    <row r="31" spans="2:13">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2153,7 +1735,7 @@
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
-    <row r="32" spans="2:13">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -2167,7 +1749,7 @@
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
-    <row r="33" spans="2:13">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -2181,7 +1763,7 @@
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2196,8 +1778,8 @@
       <c r="M34" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>